--- a/data/pca/factorExposure/factorExposure_2011-12-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-12-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01299296096122861</v>
+        <v>-0.01319196727840515</v>
       </c>
       <c r="C2">
-        <v>0.03277968146665543</v>
+        <v>0.02487207723173638</v>
       </c>
       <c r="D2">
-        <v>0.01777509959691408</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.02305594434072344</v>
+      </c>
+      <c r="E2">
+        <v>0.0131231081203674</v>
+      </c>
+      <c r="F2">
+        <v>-0.0291619584901878</v>
+      </c>
+      <c r="G2">
+        <v>-0.003331749363499279</v>
+      </c>
+      <c r="H2">
+        <v>-0.0208691193165503</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07570383645329823</v>
+        <v>-0.08904941649384357</v>
       </c>
       <c r="C4">
-        <v>0.05522197919948615</v>
+        <v>0.0350040276962848</v>
       </c>
       <c r="D4">
-        <v>0.07746068129486175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.07073222460480096</v>
+      </c>
+      <c r="E4">
+        <v>0.008736723405523983</v>
+      </c>
+      <c r="F4">
+        <v>-0.03763421794236115</v>
+      </c>
+      <c r="G4">
+        <v>-0.007305505413321624</v>
+      </c>
+      <c r="H4">
+        <v>0.04532140620076724</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1107546912778654</v>
+        <v>-0.1249336270131053</v>
       </c>
       <c r="C6">
-        <v>0.05506653066030311</v>
+        <v>0.04005998907044715</v>
       </c>
       <c r="D6">
-        <v>0.002894166846948856</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.009487110291998672</v>
+      </c>
+      <c r="E6">
+        <v>-0.02523069631561338</v>
+      </c>
+      <c r="F6">
+        <v>-0.04867314639935908</v>
+      </c>
+      <c r="G6">
+        <v>-0.01496657435307425</v>
+      </c>
+      <c r="H6">
+        <v>-0.1141311467133939</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.05463980107851003</v>
+        <v>-0.06428041159854861</v>
       </c>
       <c r="C7">
-        <v>0.03272612039939806</v>
+        <v>0.01558602948501865</v>
       </c>
       <c r="D7">
-        <v>0.03257211787525372</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05040017916003733</v>
+      </c>
+      <c r="E7">
+        <v>0.03181997401384626</v>
+      </c>
+      <c r="F7">
+        <v>-0.04044488420895782</v>
+      </c>
+      <c r="G7">
+        <v>0.03004907984838655</v>
+      </c>
+      <c r="H7">
+        <v>0.0139745489797919</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03888709205716258</v>
+        <v>-0.04261669702291283</v>
       </c>
       <c r="C8">
-        <v>0.01331042445008476</v>
+        <v>0.00845061095354315</v>
       </c>
       <c r="D8">
-        <v>0.06572436471115078</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02655533203234972</v>
+      </c>
+      <c r="E8">
+        <v>0.01264322390359742</v>
+      </c>
+      <c r="F8">
+        <v>-0.06821286495658913</v>
+      </c>
+      <c r="G8">
+        <v>-0.07061728238891252</v>
+      </c>
+      <c r="H8">
+        <v>-0.01397207007110584</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.07037546987613318</v>
+        <v>-0.08036113770615624</v>
       </c>
       <c r="C9">
-        <v>0.03998738821796689</v>
+        <v>0.02156818020667069</v>
       </c>
       <c r="D9">
-        <v>0.07144263922773438</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.06411439375854831</v>
+      </c>
+      <c r="E9">
+        <v>0.02312609358224809</v>
+      </c>
+      <c r="F9">
+        <v>-0.03241105448278225</v>
+      </c>
+      <c r="G9">
+        <v>-0.02343417275673066</v>
+      </c>
+      <c r="H9">
+        <v>0.04633705955331986</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.0274063039927567</v>
+        <v>-0.04612505173665937</v>
       </c>
       <c r="C10">
-        <v>0.02373277432056452</v>
+        <v>0.06428370488453986</v>
       </c>
       <c r="D10">
-        <v>-0.1723234950809295</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1766759379143711</v>
+      </c>
+      <c r="E10">
+        <v>0.04054643040557201</v>
+      </c>
+      <c r="F10">
+        <v>-0.04786053620058428</v>
+      </c>
+      <c r="G10">
+        <v>0.03506025510347061</v>
+      </c>
+      <c r="H10">
+        <v>-0.0574127569229263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.07092147252403586</v>
+        <v>-0.07541706919569317</v>
       </c>
       <c r="C11">
-        <v>0.04455850114549779</v>
+        <v>0.01900786029038865</v>
       </c>
       <c r="D11">
-        <v>0.0521783482862401</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.06661509925446601</v>
+      </c>
+      <c r="E11">
+        <v>-0.003614349346181707</v>
+      </c>
+      <c r="F11">
+        <v>-0.03183932463700559</v>
+      </c>
+      <c r="G11">
+        <v>-0.04355704988625668</v>
+      </c>
+      <c r="H11">
+        <v>0.06942031873868608</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.06069215645779408</v>
+        <v>-0.06959788728670541</v>
       </c>
       <c r="C12">
-        <v>0.05351076734666281</v>
+        <v>0.03199654196945566</v>
       </c>
       <c r="D12">
-        <v>0.04286911505930457</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05184452683790036</v>
+      </c>
+      <c r="E12">
+        <v>0.01278092806361535</v>
+      </c>
+      <c r="F12">
+        <v>-0.02244499178169137</v>
+      </c>
+      <c r="G12">
+        <v>-0.02612968549560214</v>
+      </c>
+      <c r="H12">
+        <v>0.03326227924838876</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.06823008313164641</v>
+        <v>-0.06855242660498144</v>
       </c>
       <c r="C13">
-        <v>0.03543880956264316</v>
+        <v>0.01636454093933917</v>
       </c>
       <c r="D13">
-        <v>0.0415063691388364</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.03708333127368998</v>
+      </c>
+      <c r="E13">
+        <v>0.006540879319922805</v>
+      </c>
+      <c r="F13">
+        <v>-0.02443548506094972</v>
+      </c>
+      <c r="G13">
+        <v>-0.01994500370653325</v>
+      </c>
+      <c r="H13">
+        <v>0.04887973944393616</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03240943487660796</v>
+        <v>-0.04044972120901841</v>
       </c>
       <c r="C14">
-        <v>0.03343912687085901</v>
+        <v>0.0279597470731996</v>
       </c>
       <c r="D14">
-        <v>-0.007885520735309681</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01395129159322691</v>
+      </c>
+      <c r="E14">
+        <v>0.02647015588733627</v>
+      </c>
+      <c r="F14">
+        <v>-0.01415460500709772</v>
+      </c>
+      <c r="G14">
+        <v>-0.01739162003929789</v>
+      </c>
+      <c r="H14">
+        <v>0.05850839364505535</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.04134008348133793</v>
+        <v>-0.0403469881994959</v>
       </c>
       <c r="C15">
-        <v>0.01067632138370925</v>
+        <v>0.002742487730057183</v>
       </c>
       <c r="D15">
-        <v>0.02207313360798289</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.008866713655266877</v>
+      </c>
+      <c r="E15">
+        <v>0.03573432064869547</v>
+      </c>
+      <c r="F15">
+        <v>-0.003106045676894088</v>
+      </c>
+      <c r="G15">
+        <v>-0.03022762886221037</v>
+      </c>
+      <c r="H15">
+        <v>0.02514915259407889</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.05934804400666919</v>
+        <v>-0.07066094171188121</v>
       </c>
       <c r="C16">
-        <v>0.04275516009493462</v>
+        <v>0.02262709414429798</v>
       </c>
       <c r="D16">
-        <v>0.052623352403072</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06462820326472098</v>
+      </c>
+      <c r="E16">
+        <v>0.005038563251151721</v>
+      </c>
+      <c r="F16">
+        <v>-0.0298454743324741</v>
+      </c>
+      <c r="G16">
+        <v>-0.02106345403573222</v>
+      </c>
+      <c r="H16">
+        <v>0.05097218868174018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06447751590837202</v>
+        <v>-0.06323094281101667</v>
       </c>
       <c r="C20">
-        <v>0.02778503996471339</v>
+        <v>0.00710651376132875</v>
       </c>
       <c r="D20">
-        <v>0.04400490036475642</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03923968283406065</v>
+      </c>
+      <c r="E20">
+        <v>0.00719079096834535</v>
+      </c>
+      <c r="F20">
+        <v>-0.02754865127159035</v>
+      </c>
+      <c r="G20">
+        <v>-0.01547068942006671</v>
+      </c>
+      <c r="H20">
+        <v>0.04684408589272481</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.03167286514647679</v>
+        <v>-0.02904658606353557</v>
       </c>
       <c r="C21">
-        <v>0.003470036796504506</v>
+        <v>-0.006955837667560564</v>
       </c>
       <c r="D21">
-        <v>0.01432142263105992</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.01884423698790893</v>
+      </c>
+      <c r="E21">
+        <v>0.04087424883506083</v>
+      </c>
+      <c r="F21">
+        <v>0.01539799719249084</v>
+      </c>
+      <c r="G21">
+        <v>-0.007067634167429513</v>
+      </c>
+      <c r="H21">
+        <v>-0.04985378133460822</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.08027564880099357</v>
+        <v>-0.0713004070044149</v>
       </c>
       <c r="C22">
-        <v>0.06133145993222867</v>
+        <v>0.02522282377000648</v>
       </c>
       <c r="D22">
-        <v>0.1467379803152715</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1059463229274073</v>
+      </c>
+      <c r="E22">
+        <v>0.6097473630497285</v>
+      </c>
+      <c r="F22">
+        <v>0.0688162486572646</v>
+      </c>
+      <c r="G22">
+        <v>0.1716039048605547</v>
+      </c>
+      <c r="H22">
+        <v>-0.1431131310366218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.08132184739251931</v>
+        <v>-0.0722185349610564</v>
       </c>
       <c r="C23">
-        <v>0.05985493824163576</v>
+        <v>0.02370068385967038</v>
       </c>
       <c r="D23">
-        <v>0.1479731093837301</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1069230204188805</v>
+      </c>
+      <c r="E23">
+        <v>0.6118760235626511</v>
+      </c>
+      <c r="F23">
+        <v>0.06814858481355332</v>
+      </c>
+      <c r="G23">
+        <v>0.1661068189688795</v>
+      </c>
+      <c r="H23">
+        <v>-0.1386918842788619</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.07777546833572771</v>
+        <v>-0.08140220632282527</v>
       </c>
       <c r="C24">
-        <v>0.05606702517376363</v>
+        <v>0.02881523987682091</v>
       </c>
       <c r="D24">
-        <v>0.05568866101797425</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.0640717553043869</v>
+      </c>
+      <c r="E24">
+        <v>0.01212504322992104</v>
+      </c>
+      <c r="F24">
+        <v>-0.0367068457987092</v>
+      </c>
+      <c r="G24">
+        <v>-0.0364231009041875</v>
+      </c>
+      <c r="H24">
+        <v>0.03749314317088084</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07494419921879847</v>
+        <v>-0.07961196026593624</v>
       </c>
       <c r="C25">
-        <v>0.05642417997267692</v>
+        <v>0.03199089150148349</v>
       </c>
       <c r="D25">
-        <v>0.05744143192655243</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05456510994085672</v>
+      </c>
+      <c r="E25">
+        <v>0.01744723566757577</v>
+      </c>
+      <c r="F25">
+        <v>-0.0336140626203631</v>
+      </c>
+      <c r="G25">
+        <v>-0.04846431961007502</v>
+      </c>
+      <c r="H25">
+        <v>0.04260334521944469</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04660044254032261</v>
+        <v>-0.04590107837979267</v>
       </c>
       <c r="C26">
-        <v>0.01598260482743718</v>
+        <v>0.003331198765715129</v>
       </c>
       <c r="D26">
-        <v>0.007384429909360813</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02073016548120397</v>
+      </c>
+      <c r="E26">
+        <v>0.04161622450601696</v>
+      </c>
+      <c r="F26">
+        <v>-0.03180383372159881</v>
+      </c>
+      <c r="G26">
+        <v>-0.0155246380742012</v>
+      </c>
+      <c r="H26">
+        <v>0.04558920062629795</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.04439015435017821</v>
+        <v>-0.07068454095611372</v>
       </c>
       <c r="C28">
-        <v>0.0677179541531983</v>
+        <v>0.1263671532349695</v>
       </c>
       <c r="D28">
-        <v>-0.3075989482632318</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2962333710150624</v>
+      </c>
+      <c r="E28">
+        <v>0.03753835552834654</v>
+      </c>
+      <c r="F28">
+        <v>-0.05349936433940274</v>
+      </c>
+      <c r="G28">
+        <v>-0.01850385413972182</v>
+      </c>
+      <c r="H28">
+        <v>-0.04961416802080341</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.0446658106834476</v>
+        <v>-0.04717455552230346</v>
       </c>
       <c r="C29">
-        <v>0.03141077035102411</v>
+        <v>0.0221219102607425</v>
       </c>
       <c r="D29">
-        <v>0.003581868439476016</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.013327310947675</v>
+      </c>
+      <c r="E29">
+        <v>0.05577487962510884</v>
+      </c>
+      <c r="F29">
+        <v>-0.01198793384335492</v>
+      </c>
+      <c r="G29">
+        <v>-0.008664048137615118</v>
+      </c>
+      <c r="H29">
+        <v>0.06850363438181253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1289684687601222</v>
+        <v>-0.127149345601347</v>
       </c>
       <c r="C30">
-        <v>0.09306187274976765</v>
+        <v>0.0539822380435444</v>
       </c>
       <c r="D30">
-        <v>0.1141362790724436</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08475493018816697</v>
+      </c>
+      <c r="E30">
+        <v>0.05490100310863067</v>
+      </c>
+      <c r="F30">
+        <v>-0.01482398825869559</v>
+      </c>
+      <c r="G30">
+        <v>-0.05538322865196338</v>
+      </c>
+      <c r="H30">
+        <v>-0.02654303386239696</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04922172528810262</v>
+        <v>-0.04980929001534595</v>
       </c>
       <c r="C31">
-        <v>0.02535806748516951</v>
+        <v>0.009842595043352683</v>
       </c>
       <c r="D31">
-        <v>0.01939868693727969</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03380076279619271</v>
+      </c>
+      <c r="E31">
+        <v>0.02293173607825495</v>
+      </c>
+      <c r="F31">
+        <v>-0.008608180601784128</v>
+      </c>
+      <c r="G31">
+        <v>0.001005343823261633</v>
+      </c>
+      <c r="H31">
+        <v>0.06789108133022061</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.0342209148637691</v>
+        <v>-0.03772347061482023</v>
       </c>
       <c r="C32">
-        <v>0.02284792671504606</v>
+        <v>0.02060710521672475</v>
       </c>
       <c r="D32">
-        <v>0.03170188335401428</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.01206193531972738</v>
+      </c>
+      <c r="E32">
+        <v>0.04652638841315374</v>
+      </c>
+      <c r="F32">
+        <v>0.001771866447390351</v>
+      </c>
+      <c r="G32">
+        <v>-0.04947683858257265</v>
+      </c>
+      <c r="H32">
+        <v>0.02080063854023603</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08659597353697344</v>
+        <v>-0.09494070329100456</v>
       </c>
       <c r="C33">
-        <v>0.04779429477479256</v>
+        <v>0.02351813652537183</v>
       </c>
       <c r="D33">
-        <v>0.04624442568906065</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.05030214721958681</v>
+      </c>
+      <c r="E33">
+        <v>0.01324860078021967</v>
+      </c>
+      <c r="F33">
+        <v>-0.001255277203716765</v>
+      </c>
+      <c r="G33">
+        <v>-0.007557587339497655</v>
+      </c>
+      <c r="H33">
+        <v>0.06831913211976749</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05974346700925042</v>
+        <v>-0.06517254719825775</v>
       </c>
       <c r="C34">
-        <v>0.02666700155743875</v>
+        <v>0.007002479629293982</v>
       </c>
       <c r="D34">
-        <v>0.0481925832382256</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05011296158064321</v>
+      </c>
+      <c r="E34">
+        <v>0.007069667684451764</v>
+      </c>
+      <c r="F34">
+        <v>-0.02080059308987766</v>
+      </c>
+      <c r="G34">
+        <v>-0.0314554133222268</v>
+      </c>
+      <c r="H34">
+        <v>0.04852294495166681</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03679697248587619</v>
+        <v>-0.03847842841396075</v>
       </c>
       <c r="C35">
-        <v>0.01123095918843679</v>
+        <v>0.00375510568951748</v>
       </c>
       <c r="D35">
-        <v>0.02175498136796877</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01610680177142984</v>
+      </c>
+      <c r="E35">
+        <v>0.02378610031828065</v>
+      </c>
+      <c r="F35">
+        <v>0.01753554676706928</v>
+      </c>
+      <c r="G35">
+        <v>0.004019174553311345</v>
+      </c>
+      <c r="H35">
+        <v>0.03197279192267528</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.0254202688347966</v>
+        <v>-0.02879103528717053</v>
       </c>
       <c r="C36">
-        <v>0.02041672594764275</v>
+        <v>0.01295391837253554</v>
       </c>
       <c r="D36">
-        <v>0.01888624878726052</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02174447957183428</v>
+      </c>
+      <c r="E36">
+        <v>0.0293719177031755</v>
+      </c>
+      <c r="F36">
+        <v>-0.02727839677776919</v>
+      </c>
+      <c r="G36">
+        <v>-0.005633058141639139</v>
+      </c>
+      <c r="H36">
+        <v>0.05186628408389403</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.04775998152065142</v>
+        <v>-0.04649769425811048</v>
       </c>
       <c r="C38">
-        <v>0.005888353986687681</v>
+        <v>-0.006223563705072717</v>
       </c>
       <c r="D38">
-        <v>0.0119873640931395</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02152861984282612</v>
+      </c>
+      <c r="E38">
+        <v>0.04748075099378078</v>
+      </c>
+      <c r="F38">
+        <v>0.002869956405147976</v>
+      </c>
+      <c r="G38">
+        <v>-0.0009222929084129239</v>
+      </c>
+      <c r="H38">
+        <v>0.02460938221821384</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.09111137211089698</v>
+        <v>-0.1008047672196264</v>
       </c>
       <c r="C39">
-        <v>0.06727032780917325</v>
+        <v>0.04078834639709451</v>
       </c>
       <c r="D39">
-        <v>0.05235896404497776</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.06484878734115267</v>
+      </c>
+      <c r="E39">
+        <v>0.0004986625825015626</v>
+      </c>
+      <c r="F39">
+        <v>0.001501816400361352</v>
+      </c>
+      <c r="G39">
+        <v>-0.04573700151779437</v>
+      </c>
+      <c r="H39">
+        <v>0.01751824279075869</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.08154286780399785</v>
+        <v>-0.06329511650303714</v>
       </c>
       <c r="C40">
-        <v>0.03848653195241957</v>
+        <v>0.003489171226798137</v>
       </c>
       <c r="D40">
-        <v>0.01174370139996722</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03486172250718578</v>
+      </c>
+      <c r="E40">
+        <v>0.03655086079941573</v>
+      </c>
+      <c r="F40">
+        <v>0.03520452110079844</v>
+      </c>
+      <c r="G40">
+        <v>-0.05813128283580016</v>
+      </c>
+      <c r="H40">
+        <v>-0.06492602900649211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04623784143515471</v>
+        <v>-0.04680515837580861</v>
       </c>
       <c r="C41">
-        <v>0.01363409844497801</v>
+        <v>-0.001459005935715772</v>
       </c>
       <c r="D41">
-        <v>0.03764958392959966</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03372894087019794</v>
+      </c>
+      <c r="E41">
+        <v>0.001587191538124215</v>
+      </c>
+      <c r="F41">
+        <v>0.01354804257934165</v>
+      </c>
+      <c r="G41">
+        <v>-0.008726237783809765</v>
+      </c>
+      <c r="H41">
+        <v>0.02812191184145549</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.05445363142163248</v>
+        <v>-0.06037314262771035</v>
       </c>
       <c r="C43">
-        <v>0.02902735218043197</v>
+        <v>0.01475352961139827</v>
       </c>
       <c r="D43">
-        <v>0.01021874864845255</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03139782401820304</v>
+      </c>
+      <c r="E43">
+        <v>0.01969233238334857</v>
+      </c>
+      <c r="F43">
+        <v>-0.01377642415914758</v>
+      </c>
+      <c r="G43">
+        <v>0.01068553837711725</v>
+      </c>
+      <c r="H43">
+        <v>0.06401329625268991</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09584707524532207</v>
+        <v>-0.09314426959599177</v>
       </c>
       <c r="C44">
-        <v>0.08374616743380717</v>
+        <v>0.04834866453935958</v>
       </c>
       <c r="D44">
-        <v>0.06425824931038709</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.0727357145771871</v>
+      </c>
+      <c r="E44">
+        <v>0.06894521740690357</v>
+      </c>
+      <c r="F44">
+        <v>-0.09159323648905945</v>
+      </c>
+      <c r="G44">
+        <v>-0.06143848289737591</v>
+      </c>
+      <c r="H44">
+        <v>0.1035156927251248</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02704536428985669</v>
+        <v>-0.03553751792149289</v>
       </c>
       <c r="C46">
-        <v>0.01804339195662339</v>
+        <v>0.01036222232275191</v>
       </c>
       <c r="D46">
-        <v>0.03272841067484806</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03744614065054706</v>
+      </c>
+      <c r="E46">
+        <v>0.03142605239747734</v>
+      </c>
+      <c r="F46">
+        <v>-0.01387782623472279</v>
+      </c>
+      <c r="G46">
+        <v>-0.0003608324927314493</v>
+      </c>
+      <c r="H46">
+        <v>0.02433504431087954</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.03316181779086595</v>
+        <v>-0.04079653760428201</v>
       </c>
       <c r="C47">
-        <v>0.02354501438377877</v>
+        <v>0.01845107906162504</v>
       </c>
       <c r="D47">
-        <v>-3.700442682037945e-06</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.008297154773660673</v>
+      </c>
+      <c r="E47">
+        <v>0.04155498228310082</v>
+      </c>
+      <c r="F47">
+        <v>0.008975662641075794</v>
+      </c>
+      <c r="G47">
+        <v>0.02820452228348886</v>
+      </c>
+      <c r="H47">
+        <v>0.02894254736918245</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.03715856062069699</v>
+        <v>-0.04055086284405691</v>
       </c>
       <c r="C48">
-        <v>0.02492326971781949</v>
+        <v>0.0143067957369267</v>
       </c>
       <c r="D48">
-        <v>0.0284615612543704</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.02058845114196583</v>
+      </c>
+      <c r="E48">
+        <v>0.03790142504394553</v>
+      </c>
+      <c r="F48">
+        <v>-0.01060005565735481</v>
+      </c>
+      <c r="G48">
+        <v>-0.01940886967577543</v>
+      </c>
+      <c r="H48">
+        <v>0.02494291866990692</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1636610072926521</v>
+        <v>-0.2002018291039183</v>
       </c>
       <c r="C49">
-        <v>0.05339916108772478</v>
+        <v>0.03356190126741431</v>
       </c>
       <c r="D49">
-        <v>0.002735683562300807</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.02768853951761509</v>
+      </c>
+      <c r="E49">
+        <v>-0.1665324167817776</v>
+      </c>
+      <c r="F49">
+        <v>-0.041995370116629</v>
+      </c>
+      <c r="G49">
+        <v>0.1523186734399537</v>
+      </c>
+      <c r="H49">
+        <v>-0.2209120206093388</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.04359137051953586</v>
+        <v>-0.04572855878307697</v>
       </c>
       <c r="C50">
-        <v>0.02565466361526793</v>
+        <v>0.01176860754066832</v>
       </c>
       <c r="D50">
-        <v>0.03742831864205476</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.0397054680614861</v>
+      </c>
+      <c r="E50">
+        <v>0.03272591393276719</v>
+      </c>
+      <c r="F50">
+        <v>-0.004743603955900846</v>
+      </c>
+      <c r="G50">
+        <v>-0.00127780849670867</v>
+      </c>
+      <c r="H50">
+        <v>0.07899609783749387</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.0273724687706844</v>
+        <v>-0.03495508279122491</v>
       </c>
       <c r="C51">
-        <v>0.01053825459894024</v>
+        <v>0.007399500041813125</v>
       </c>
       <c r="D51">
-        <v>-0.002795428418107543</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.002333410778836158</v>
+      </c>
+      <c r="E51">
+        <v>0.01042089703648979</v>
+      </c>
+      <c r="F51">
+        <v>-0.007030561869812665</v>
+      </c>
+      <c r="G51">
+        <v>0.01782334410077629</v>
+      </c>
+      <c r="H51">
+        <v>-0.02266324733050553</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1539840484258035</v>
+        <v>-0.1607757368098153</v>
       </c>
       <c r="C53">
-        <v>0.07628653932545698</v>
+        <v>0.04585058602073753</v>
       </c>
       <c r="D53">
-        <v>-0.003029576152012809</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.02721400467603544</v>
+      </c>
+      <c r="E53">
+        <v>-0.03263957925741564</v>
+      </c>
+      <c r="F53">
+        <v>-2.87731789987908e-05</v>
+      </c>
+      <c r="G53">
+        <v>-0.01281837568364652</v>
+      </c>
+      <c r="H53">
+        <v>0.2000559202810582</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05868387069935588</v>
+        <v>-0.05813274465089311</v>
       </c>
       <c r="C54">
-        <v>0.02431356200717866</v>
+        <v>0.01204859048277645</v>
       </c>
       <c r="D54">
-        <v>0.01621635094144912</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01427452420509337</v>
+      </c>
+      <c r="E54">
+        <v>0.05446966028949733</v>
+      </c>
+      <c r="F54">
+        <v>-0.01489572904251676</v>
+      </c>
+      <c r="G54">
+        <v>-0.05737966960164987</v>
+      </c>
+      <c r="H54">
+        <v>0.03899424440385681</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1033265960234373</v>
+        <v>-0.1033714678078201</v>
       </c>
       <c r="C55">
-        <v>0.05414208604531181</v>
+        <v>0.02920704703900599</v>
       </c>
       <c r="D55">
-        <v>0.01215161421424974</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.0314753842169698</v>
+      </c>
+      <c r="E55">
+        <v>3.536035316657301e-05</v>
+      </c>
+      <c r="F55">
+        <v>-0.01543476730509145</v>
+      </c>
+      <c r="G55">
+        <v>-0.0255351860378321</v>
+      </c>
+      <c r="H55">
+        <v>0.157650831512826</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1491449402911725</v>
+        <v>-0.1558511111242959</v>
       </c>
       <c r="C56">
-        <v>0.08210117653251436</v>
+        <v>0.04655344612983018</v>
       </c>
       <c r="D56">
-        <v>0.001768958794420352</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.0448483837299391</v>
+      </c>
+      <c r="E56">
+        <v>-0.01415483931188971</v>
+      </c>
+      <c r="F56">
+        <v>-0.02265597067179201</v>
+      </c>
+      <c r="G56">
+        <v>-0.02443818648181137</v>
+      </c>
+      <c r="H56">
+        <v>0.2038347574360101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1309087856889459</v>
+        <v>-0.09901171682890644</v>
       </c>
       <c r="C58">
-        <v>-0.0127758585813902</v>
+        <v>-0.05768183379505908</v>
       </c>
       <c r="D58">
-        <v>0.05129214427099034</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.02968439911205741</v>
+      </c>
+      <c r="E58">
+        <v>0.1218973123128025</v>
+      </c>
+      <c r="F58">
+        <v>-0.02717726840380209</v>
+      </c>
+      <c r="G58">
+        <v>0.08034786810727351</v>
+      </c>
+      <c r="H58">
+        <v>-0.1443247746613057</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1190464740124144</v>
+        <v>-0.1461774167565605</v>
       </c>
       <c r="C59">
-        <v>0.07454993176040671</v>
+        <v>0.1291815741996655</v>
       </c>
       <c r="D59">
-        <v>-0.3989254513056709</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.3480810762393557</v>
+      </c>
+      <c r="E59">
+        <v>0.03250044034508715</v>
+      </c>
+      <c r="F59">
+        <v>-0.0008060470295330456</v>
+      </c>
+      <c r="G59">
+        <v>-0.0001601856995217722</v>
+      </c>
+      <c r="H59">
+        <v>0.01256595172430747</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2084707928711403</v>
+        <v>-0.238972023419633</v>
       </c>
       <c r="C60">
-        <v>0.09345634930226451</v>
+        <v>0.05704163444568566</v>
       </c>
       <c r="D60">
-        <v>0.0093771081273748</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04867338987760735</v>
+      </c>
+      <c r="E60">
+        <v>-0.1135030061663169</v>
+      </c>
+      <c r="F60">
+        <v>-0.04598256252367381</v>
+      </c>
+      <c r="G60">
+        <v>0.03680223657261111</v>
+      </c>
+      <c r="H60">
+        <v>-0.14356575882568</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.07938785208929294</v>
+        <v>-0.08547144431194321</v>
       </c>
       <c r="C61">
-        <v>0.04482634598254306</v>
+        <v>0.02450411084291544</v>
       </c>
       <c r="D61">
-        <v>0.03314295948204683</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04453061970416581</v>
+      </c>
+      <c r="E61">
+        <v>0.007284125298807862</v>
+      </c>
+      <c r="F61">
+        <v>-0.008859987169885794</v>
+      </c>
+      <c r="G61">
+        <v>-0.03411272427980338</v>
+      </c>
+      <c r="H61">
+        <v>0.05783999604969291</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1331572712852041</v>
+        <v>-0.1373521152935644</v>
       </c>
       <c r="C62">
-        <v>0.06266909229470298</v>
+        <v>0.02860364828682739</v>
       </c>
       <c r="D62">
-        <v>-0.0006136503215533978</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.04575845363557769</v>
+      </c>
+      <c r="E62">
+        <v>-0.04478412237074208</v>
+      </c>
+      <c r="F62">
+        <v>0.01182253507913636</v>
+      </c>
+      <c r="G62">
+        <v>-0.05213828322845866</v>
+      </c>
+      <c r="H62">
+        <v>0.2022767155504721</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.0519282844223951</v>
+        <v>-0.05013866933633232</v>
       </c>
       <c r="C63">
-        <v>0.02517179714250295</v>
+        <v>0.01299816907754128</v>
       </c>
       <c r="D63">
-        <v>0.02403388608550856</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02142174555294414</v>
+      </c>
+      <c r="E63">
+        <v>0.04404085781831365</v>
+      </c>
+      <c r="F63">
+        <v>0.0002931272142488202</v>
+      </c>
+      <c r="G63">
+        <v>-0.03451954228689758</v>
+      </c>
+      <c r="H63">
+        <v>0.03091643237627821</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.106818404037365</v>
+        <v>-0.1100049415497763</v>
       </c>
       <c r="C64">
-        <v>0.03718939008933678</v>
+        <v>0.01640643708641399</v>
       </c>
       <c r="D64">
-        <v>0.02066044385967867</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.02830182791523318</v>
+      </c>
+      <c r="E64">
+        <v>0.03930318302190228</v>
+      </c>
+      <c r="F64">
+        <v>-0.04490846859631409</v>
+      </c>
+      <c r="G64">
+        <v>-0.06062455720455406</v>
+      </c>
+      <c r="H64">
+        <v>0.02498821020625457</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1257843049015671</v>
+        <v>-0.1302038389657396</v>
       </c>
       <c r="C65">
-        <v>0.05968011622919937</v>
+        <v>0.04167194922897259</v>
       </c>
       <c r="D65">
-        <v>0.01387585765368727</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01419129073162669</v>
+      </c>
+      <c r="E65">
+        <v>-0.006221958767384102</v>
+      </c>
+      <c r="F65">
+        <v>-0.03651729075540232</v>
+      </c>
+      <c r="G65">
+        <v>-0.03914810732485721</v>
+      </c>
+      <c r="H65">
+        <v>-0.1317065598548857</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1463171220727452</v>
+        <v>-0.150430363405169</v>
       </c>
       <c r="C66">
-        <v>0.07028025598194788</v>
+        <v>0.02791278421301115</v>
       </c>
       <c r="D66">
-        <v>0.0967240709930859</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1027546538212584</v>
+      </c>
+      <c r="E66">
+        <v>-0.02800170619149519</v>
+      </c>
+      <c r="F66">
+        <v>-0.004201132232147651</v>
+      </c>
+      <c r="G66">
+        <v>-0.0720478814851805</v>
+      </c>
+      <c r="H66">
+        <v>0.0799054771580656</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07771743504854407</v>
+        <v>-0.08602017296603015</v>
       </c>
       <c r="C67">
-        <v>0.01246152195596176</v>
+        <v>-0.002661252243020553</v>
       </c>
       <c r="D67">
-        <v>0.01819675745806971</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03353432469828248</v>
+      </c>
+      <c r="E67">
+        <v>0.02014772326266758</v>
+      </c>
+      <c r="F67">
+        <v>-0.01297532654878264</v>
+      </c>
+      <c r="G67">
+        <v>0.01368509161414085</v>
+      </c>
+      <c r="H67">
+        <v>0.02068524077183602</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.05302644889299488</v>
+        <v>-0.06281938112133113</v>
       </c>
       <c r="C68">
-        <v>0.04801304034068422</v>
+        <v>0.09459834623256259</v>
       </c>
       <c r="D68">
-        <v>-0.2593090362884876</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2573164681510871</v>
+      </c>
+      <c r="E68">
+        <v>0.04616615217746352</v>
+      </c>
+      <c r="F68">
+        <v>-0.01310279755484812</v>
+      </c>
+      <c r="G68">
+        <v>0.0006672672814450486</v>
+      </c>
+      <c r="H68">
+        <v>0.02355632698349139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05286719321831853</v>
+        <v>-0.05218321521319393</v>
       </c>
       <c r="C69">
-        <v>0.01849735630883598</v>
+        <v>0.00390336171000586</v>
       </c>
       <c r="D69">
-        <v>0.02264004137379317</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01960435472787372</v>
+      </c>
+      <c r="E69">
+        <v>0.02411114201804338</v>
+      </c>
+      <c r="F69">
+        <v>0.01269039798432527</v>
+      </c>
+      <c r="G69">
+        <v>-0.0006272712864340392</v>
+      </c>
+      <c r="H69">
+        <v>0.04403178526833972</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.004109864599651445</v>
+        <v>-0.0286208399741565</v>
       </c>
       <c r="C70">
-        <v>-0.005730724028890176</v>
+        <v>-0.001363669322220838</v>
       </c>
       <c r="D70">
-        <v>-0.01181916480370251</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.00689917257889964</v>
+      </c>
+      <c r="E70">
+        <v>-0.02455016379078522</v>
+      </c>
+      <c r="F70">
+        <v>0.007926164796819828</v>
+      </c>
+      <c r="G70">
+        <v>0.02541828191239874</v>
+      </c>
+      <c r="H70">
+        <v>-0.04155061600229108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.05239855575463914</v>
+        <v>-0.07012883095627995</v>
       </c>
       <c r="C71">
-        <v>0.04957248437749895</v>
+        <v>0.1077748309970848</v>
       </c>
       <c r="D71">
-        <v>-0.2931495969771529</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2862302595037877</v>
+      </c>
+      <c r="E71">
+        <v>0.04687941671184589</v>
+      </c>
+      <c r="F71">
+        <v>-0.03913083724806309</v>
+      </c>
+      <c r="G71">
+        <v>0.001153947088922605</v>
+      </c>
+      <c r="H71">
+        <v>0.01839537571944546</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1413167390095612</v>
+        <v>-0.1444370381065638</v>
       </c>
       <c r="C72">
-        <v>0.06402141380344929</v>
+        <v>0.03459330071188673</v>
       </c>
       <c r="D72">
-        <v>-0.01005041848362417</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.006779007574119503</v>
+      </c>
+      <c r="E72">
+        <v>-0.05096564911712828</v>
+      </c>
+      <c r="F72">
+        <v>0.1603925989062779</v>
+      </c>
+      <c r="G72">
+        <v>-0.1084845130509639</v>
+      </c>
+      <c r="H72">
+        <v>0.002235364680889216</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2843744256860403</v>
+        <v>-0.288228820483861</v>
       </c>
       <c r="C73">
-        <v>0.09617381530716219</v>
+        <v>0.01860962693846584</v>
       </c>
       <c r="D73">
-        <v>0.04053988803862719</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.09828653461034599</v>
+      </c>
+      <c r="E73">
+        <v>-0.2564646406351549</v>
+      </c>
+      <c r="F73">
+        <v>-0.07277139353703126</v>
+      </c>
+      <c r="G73">
+        <v>0.259003607664667</v>
+      </c>
+      <c r="H73">
+        <v>-0.3791295560138259</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.08356011315885505</v>
+        <v>-0.0923352764450571</v>
       </c>
       <c r="C74">
-        <v>0.07587611108281821</v>
+        <v>0.05267848483128421</v>
       </c>
       <c r="D74">
-        <v>0.00352168288020173</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04102807378126802</v>
+      </c>
+      <c r="E74">
+        <v>-0.005963714615638183</v>
+      </c>
+      <c r="F74">
+        <v>0.001888619988361538</v>
+      </c>
+      <c r="G74">
+        <v>0.02443836838913731</v>
+      </c>
+      <c r="H74">
+        <v>0.1329578309989558</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.1005366312258771</v>
+        <v>-0.1020836309659664</v>
       </c>
       <c r="C75">
-        <v>0.04818515368615681</v>
+        <v>0.01930225362778486</v>
       </c>
       <c r="D75">
-        <v>0.01192757772662325</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02729175846583681</v>
+      </c>
+      <c r="E75">
+        <v>-0.001405465708495645</v>
+      </c>
+      <c r="F75">
+        <v>-0.0007091878014601521</v>
+      </c>
+      <c r="G75">
+        <v>0.001988246613814954</v>
+      </c>
+      <c r="H75">
+        <v>0.09598970216226659</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1320107177483491</v>
+        <v>-0.1418560765573919</v>
       </c>
       <c r="C76">
-        <v>0.07632133431627604</v>
+        <v>0.04561810337091003</v>
       </c>
       <c r="D76">
-        <v>0.02476709050060727</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05434499301086337</v>
+      </c>
+      <c r="E76">
+        <v>0.01228405005809054</v>
+      </c>
+      <c r="F76">
+        <v>-0.03159067111975654</v>
+      </c>
+      <c r="G76">
+        <v>-0.02748761135229491</v>
+      </c>
+      <c r="H76">
+        <v>0.2215989982131202</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1195468250644619</v>
+        <v>-0.1021568291532818</v>
       </c>
       <c r="C77">
-        <v>0.02694404244227002</v>
+        <v>-0.01085486447499432</v>
       </c>
       <c r="D77">
-        <v>0.08010348527834181</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.03683780102611072</v>
+      </c>
+      <c r="E77">
+        <v>0.05543094509424235</v>
+      </c>
+      <c r="F77">
+        <v>-0.08130786796056687</v>
+      </c>
+      <c r="G77">
+        <v>-0.8020420860164265</v>
+      </c>
+      <c r="H77">
+        <v>-0.3788787001742698</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.1076563367060396</v>
+        <v>-0.1529685908307671</v>
       </c>
       <c r="C78">
-        <v>0.04274401739014989</v>
+        <v>0.03334603825054753</v>
       </c>
       <c r="D78">
-        <v>0.08870475356657</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.08022752259541713</v>
+      </c>
+      <c r="E78">
+        <v>0.05630962699875155</v>
+      </c>
+      <c r="F78">
+        <v>-0.05188693029096546</v>
+      </c>
+      <c r="G78">
+        <v>-0.03049363792195548</v>
+      </c>
+      <c r="H78">
+        <v>-0.06731115090889554</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1446883778859986</v>
+        <v>-0.1460680687253104</v>
       </c>
       <c r="C79">
-        <v>0.0706867381476018</v>
+        <v>0.03252546301477521</v>
       </c>
       <c r="D79">
-        <v>0.02152775113837032</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.04522116305996114</v>
+      </c>
+      <c r="E79">
+        <v>-0.01340654813128789</v>
+      </c>
+      <c r="F79">
+        <v>-0.01576997502665536</v>
+      </c>
+      <c r="G79">
+        <v>-0.03006617055275411</v>
+      </c>
+      <c r="H79">
+        <v>0.1599603603383399</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04107779650409187</v>
+        <v>-0.04217568516818089</v>
       </c>
       <c r="C80">
-        <v>0.0184741322154835</v>
+        <v>0.009789553192840708</v>
       </c>
       <c r="D80">
-        <v>0.03038420654356736</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01271764859265375</v>
+      </c>
+      <c r="E80">
+        <v>-0.04024012191834111</v>
+      </c>
+      <c r="F80">
+        <v>-0.007512707783603761</v>
+      </c>
+      <c r="G80">
+        <v>0.01624603861309947</v>
+      </c>
+      <c r="H80">
+        <v>0.03957292894726457</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1221265635272515</v>
+        <v>-0.1237709500211704</v>
       </c>
       <c r="C81">
-        <v>0.05961173432733051</v>
+        <v>0.02965801143646436</v>
       </c>
       <c r="D81">
-        <v>0.02752509495440234</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.03226363863620034</v>
+      </c>
+      <c r="E81">
+        <v>0.005658138665820879</v>
+      </c>
+      <c r="F81">
+        <v>-0.01577605750867945</v>
+      </c>
+      <c r="G81">
+        <v>-0.0009894295453362126</v>
+      </c>
+      <c r="H81">
+        <v>0.1413890479755528</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1342121016770462</v>
+        <v>-0.1312546540950321</v>
       </c>
       <c r="C82">
-        <v>0.06903881320605269</v>
+        <v>0.03647227774376446</v>
       </c>
       <c r="D82">
-        <v>0.001008697976263201</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.03671203053502557</v>
+      </c>
+      <c r="E82">
+        <v>-0.02247383500063961</v>
+      </c>
+      <c r="F82">
+        <v>-0.04018373495763214</v>
+      </c>
+      <c r="G82">
+        <v>-0.01436675874850103</v>
+      </c>
+      <c r="H82">
+        <v>0.2151368155484428</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.06111188811605263</v>
+        <v>-0.07734585097478629</v>
       </c>
       <c r="C83">
-        <v>-0.0327014549327885</v>
+        <v>-0.04121324214876926</v>
       </c>
       <c r="D83">
-        <v>0.0202363656929381</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.01507528396274492</v>
+      </c>
+      <c r="E83">
+        <v>0.01757308749266069</v>
+      </c>
+      <c r="F83">
+        <v>-0.03138648556147955</v>
+      </c>
+      <c r="G83">
+        <v>0.04373745874252045</v>
+      </c>
+      <c r="H83">
+        <v>-0.04624331735383272</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02444646344797984</v>
+        <v>-0.03156290972386842</v>
       </c>
       <c r="C84">
-        <v>0.02250123657468298</v>
+        <v>0.01073450343426721</v>
       </c>
       <c r="D84">
-        <v>0.04109154790590297</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.04139158414061332</v>
+      </c>
+      <c r="E84">
+        <v>0.01713849760575505</v>
+      </c>
+      <c r="F84">
+        <v>0.0349181789460912</v>
+      </c>
+      <c r="G84">
+        <v>0.02783984695148688</v>
+      </c>
+      <c r="H84">
+        <v>0.02984951498506256</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1181345413674991</v>
+        <v>-0.1217422754870055</v>
       </c>
       <c r="C85">
-        <v>0.04138751132694723</v>
+        <v>0.01317327016284043</v>
       </c>
       <c r="D85">
-        <v>0.05229671380080979</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.04231730440280037</v>
+      </c>
+      <c r="E85">
+        <v>0.01660974704247083</v>
+      </c>
+      <c r="F85">
+        <v>-0.03285397086120077</v>
+      </c>
+      <c r="G85">
+        <v>0.005640425928003591</v>
+      </c>
+      <c r="H85">
+        <v>0.1472261129610189</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.05275855867145803</v>
+        <v>-0.05613870948469837</v>
       </c>
       <c r="C86">
-        <v>0.0246857755769752</v>
+        <v>0.0085526766381533</v>
       </c>
       <c r="D86">
-        <v>0.06573302170670395</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.03443320207683177</v>
+      </c>
+      <c r="E86">
+        <v>0.03784789752370877</v>
+      </c>
+      <c r="F86">
+        <v>-0.02324689219593555</v>
+      </c>
+      <c r="G86">
+        <v>0.04138673435459756</v>
+      </c>
+      <c r="H86">
+        <v>-0.04707263582822902</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1241239354189325</v>
+        <v>-0.1261247700749311</v>
       </c>
       <c r="C87">
-        <v>0.07536847464346702</v>
+        <v>0.03289502591374717</v>
       </c>
       <c r="D87">
-        <v>0.06877973265813507</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.06989138740175686</v>
+      </c>
+      <c r="E87">
+        <v>0.02450194753964294</v>
+      </c>
+      <c r="F87">
+        <v>-0.02713360319745826</v>
+      </c>
+      <c r="G87">
+        <v>-0.1516150532651298</v>
+      </c>
+      <c r="H87">
+        <v>-0.07437650593385109</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05427365808169658</v>
+        <v>-0.06280027313469717</v>
       </c>
       <c r="C88">
-        <v>0.03190341530913066</v>
+        <v>0.01795929511931482</v>
       </c>
       <c r="D88">
-        <v>0.02504753808474637</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04053940440301258</v>
+      </c>
+      <c r="E88">
+        <v>0.00466599827491017</v>
+      </c>
+      <c r="F88">
+        <v>-0.02065040106855562</v>
+      </c>
+      <c r="G88">
+        <v>-0.01156611121038066</v>
+      </c>
+      <c r="H88">
+        <v>0.03896992655706073</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08181466247179138</v>
+        <v>-0.1072604814106132</v>
       </c>
       <c r="C89">
-        <v>0.06806031098143848</v>
+        <v>0.1349754563129222</v>
       </c>
       <c r="D89">
-        <v>-0.3222040155215676</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.3369213183517127</v>
+      </c>
+      <c r="E89">
+        <v>0.06088205493682818</v>
+      </c>
+      <c r="F89">
+        <v>-0.06786091659210085</v>
+      </c>
+      <c r="G89">
+        <v>0.023956845153983</v>
+      </c>
+      <c r="H89">
+        <v>0.01629728205270482</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.06236948425117021</v>
+        <v>-0.0824461646660401</v>
       </c>
       <c r="C90">
-        <v>0.05686206688596178</v>
+        <v>0.1097154823683694</v>
       </c>
       <c r="D90">
-        <v>-0.2799045020758341</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2755241081659426</v>
+      </c>
+      <c r="E90">
+        <v>0.05168020795245957</v>
+      </c>
+      <c r="F90">
+        <v>-0.02801655888365464</v>
+      </c>
+      <c r="G90">
+        <v>-0.02281340540576178</v>
+      </c>
+      <c r="H90">
+        <v>-0.007485122411105711</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08956545938362277</v>
+        <v>-0.09001863917053259</v>
       </c>
       <c r="C91">
-        <v>0.0488988183073481</v>
+        <v>0.02217294643426508</v>
       </c>
       <c r="D91">
-        <v>0.01372030312927757</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03322443548858697</v>
+      </c>
+      <c r="E91">
+        <v>0.006560377183232765</v>
+      </c>
+      <c r="F91">
+        <v>-0.004179951290389279</v>
+      </c>
+      <c r="G91">
+        <v>0.01369172818743964</v>
+      </c>
+      <c r="H91">
+        <v>0.08413301230234127</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.06751455027307185</v>
+        <v>-0.08418911867806933</v>
       </c>
       <c r="C92">
-        <v>0.06565205364733494</v>
+        <v>0.1262373536266493</v>
       </c>
       <c r="D92">
-        <v>-0.3357847171737496</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.3239632105310292</v>
+      </c>
+      <c r="E92">
+        <v>0.05123893784165048</v>
+      </c>
+      <c r="F92">
+        <v>-0.03441775607895392</v>
+      </c>
+      <c r="G92">
+        <v>-0.00332070162718726</v>
+      </c>
+      <c r="H92">
+        <v>0.01765543879846866</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.05877270022510132</v>
+        <v>-0.0809028834514455</v>
       </c>
       <c r="C93">
-        <v>0.06186073953177251</v>
+        <v>0.1218163933500156</v>
       </c>
       <c r="D93">
-        <v>-0.300624217999026</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2922401289744377</v>
+      </c>
+      <c r="E93">
+        <v>0.02777058857026722</v>
+      </c>
+      <c r="F93">
+        <v>-0.02943170091155299</v>
+      </c>
+      <c r="G93">
+        <v>-0.01449097847189326</v>
+      </c>
+      <c r="H93">
+        <v>0.006494530918491503</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.133915854570095</v>
+        <v>-0.1284235700733718</v>
       </c>
       <c r="C94">
-        <v>0.04287203913339049</v>
+        <v>0.005129805716370941</v>
       </c>
       <c r="D94">
-        <v>0.04039325508162309</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04843806327642527</v>
+      </c>
+      <c r="E94">
+        <v>-0.01976428697394432</v>
+      </c>
+      <c r="F94">
+        <v>-0.01786850748058494</v>
+      </c>
+      <c r="G94">
+        <v>0.03133350922731046</v>
+      </c>
+      <c r="H94">
+        <v>0.1070151399282925</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1201824708204466</v>
+        <v>-0.1284869980170274</v>
       </c>
       <c r="C95">
-        <v>0.01792741622481422</v>
+        <v>-0.0108455560799458</v>
       </c>
       <c r="D95">
-        <v>0.0570062448690155</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.05657534981946415</v>
+      </c>
+      <c r="E95">
+        <v>0.002216445855137269</v>
+      </c>
+      <c r="F95">
+        <v>-0.05011710102895976</v>
+      </c>
+      <c r="G95">
+        <v>-0.02947368848803991</v>
+      </c>
+      <c r="H95">
+        <v>-0.1121381154219156</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2197268915312969</v>
+        <v>-0.1940276031140903</v>
       </c>
       <c r="C97">
-        <v>0.03798991800195726</v>
+        <v>-0.01497092034212072</v>
       </c>
       <c r="D97">
-        <v>-0.1020364563681393</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.06147866949781342</v>
+      </c>
+      <c r="E97">
+        <v>-0.07222017073680527</v>
+      </c>
+      <c r="F97">
+        <v>0.9353681795970218</v>
+      </c>
+      <c r="G97">
+        <v>-0.06242722784135935</v>
+      </c>
+      <c r="H97">
+        <v>-0.02575720829100183</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2412285724365363</v>
+        <v>-0.2725109410132254</v>
       </c>
       <c r="C98">
-        <v>0.05183193545292137</v>
+        <v>0.009766535284177104</v>
       </c>
       <c r="D98">
-        <v>0.0137496469444634</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.04090560187898341</v>
+      </c>
+      <c r="E98">
+        <v>-0.2027758312487001</v>
+      </c>
+      <c r="F98">
+        <v>-0.04659612094265984</v>
+      </c>
+      <c r="G98">
+        <v>0.3087942322412475</v>
+      </c>
+      <c r="H98">
+        <v>-0.2228923227883687</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.4125481451323971</v>
+        <v>-0.2631301366942012</v>
       </c>
       <c r="C99">
-        <v>-0.891844048971874</v>
+        <v>-0.9098268829155388</v>
       </c>
       <c r="D99">
-        <v>-0.05517655463612696</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.256768513273713</v>
+      </c>
+      <c r="E99">
+        <v>0.06880781903148107</v>
+      </c>
+      <c r="F99">
+        <v>-0.07826080561439611</v>
+      </c>
+      <c r="G99">
+        <v>-0.01309349250359803</v>
+      </c>
+      <c r="H99">
+        <v>0.07759062559030921</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.04472567464229413</v>
+        <v>-0.04725102961267025</v>
       </c>
       <c r="C101">
-        <v>0.03167585075539908</v>
+        <v>0.02243499732012381</v>
       </c>
       <c r="D101">
-        <v>0.003799543707704296</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.013412319868811</v>
+      </c>
+      <c r="E101">
+        <v>0.05573072618368617</v>
+      </c>
+      <c r="F101">
+        <v>-0.01192379027824603</v>
+      </c>
+      <c r="G101">
+        <v>-0.008002777972225915</v>
+      </c>
+      <c r="H101">
+        <v>0.06738305946694952</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
